--- a/mutate/result/issue2492/all_branch.xlsx
+++ b/mutate/result/issue2492/all_branch.xlsx
@@ -448,7 +448,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>and have 1 and 6025 different commits each, respectively.</t>
+          <t>and have 1 and 6127 different commits each, respectively.</t>
         </is>
       </c>
     </row>
